--- a/code/excel tables/Text.xlsx
+++ b/code/excel tables/Text.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2352605\Documents\71-ssb-pcos\code\Excel Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2352605\Documents\71-ssb-pcos\code\excel tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE3617-F249-4BC4-A4EE-6516D475F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27816FA1-80AF-46E7-9C18-F5324660785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{902A911A-440F-4C02-800B-1ED072D5A9E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Awareness_of_NISRA</t>
   </si>
@@ -47,15 +47,9 @@
     <t xml:space="preserve">This worksheet contains five tables, presented vertically, outlining awareness of NISRA </t>
   </si>
   <si>
-    <t>Table 1: Awareness of NISRA, 2009-2022</t>
-  </si>
-  <si>
     <t>Note 1: The percentages for 2009 and 2010 are rounded figures</t>
   </si>
   <si>
-    <t>Table 2: Awareness of NISRA (2022) and ONS (2021)</t>
-  </si>
-  <si>
     <t>Awareness_NISRA_Statistics</t>
   </si>
   <si>
@@ -68,36 +62,6 @@
     <t>This worksheet contains ten tables, presented vertically, outlining awareness of specified statistics produced by NISRA, among those who had not previously heard of NISRA.</t>
   </si>
   <si>
-    <t>Table 6: Aware of NISRA statistics on the number of deaths in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 7: Aware of NISRA statistics on recorded levels of crime in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 8: Aware of NISRA statistics on the qualifications of school leavers in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 9: Aware of NISRA statistics on the number of people who live in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 10: Aware of NISRA statistics on hospital waiting times in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 11: Aware of NISRA statistics on the Northern Ireland Census every ten years, 2022</t>
-  </si>
-  <si>
-    <t>Table 12: Aware of NISRA statistics on the unemployment rate in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 13: Aware of NISRA statistics on people living in poverty in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 14: Aware of NISRA statistics on percentage of journeys made by walking, cycling or public transport in Northern Ireland, 2022</t>
-  </si>
-  <si>
-    <t>Table 15: Number of selected NISRA statistics respondents had heard of (among those who were not previously aware of NISRA), 2022</t>
-  </si>
-  <si>
     <t>Aware_Statistics_by_NISRA</t>
   </si>
   <si>
@@ -110,36 +74,6 @@
     <t>This worksheet contains ten tables, presented vertically, outlining awareness that specified statistics are produced by NISRA statisticians, among those who had heard of NISRA.</t>
   </si>
   <si>
-    <t>Table 16: Aware that statistics on the number of deaths in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 17: Aware that statistics on recorded levels of crime in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 18: Aware that statistics on the qualifications of school leavers in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 19: Aware that statistics on the number of people who live in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 20: Aware that statistics on hospital waiting times in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 21: Aware that statistics on the Northern Ireland Census every ten years are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 22: Aware that statistics on the unemployment rate in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 23: Aware that statistics on people living in poverty in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 24: Aware that statistics on the percentage of journeys made by walking, cycling or public transport in Northern Ireland are produced by NISRA statisticians, 2022</t>
-  </si>
-  <si>
-    <t>Table 25: Number of specified statistics respondents are aware are produced by NISRA statisticians (among those who had previously heard of NISRA), 2022</t>
-  </si>
-  <si>
     <t>Trust_NISRA</t>
   </si>
   <si>
@@ -149,12 +83,6 @@
     <t>This worksheet contains six tables, presented vertically, outlining trust in NISRA as an institution</t>
   </si>
   <si>
-    <t>Table 26: Trust in NISRA, 2014-2022</t>
-  </si>
-  <si>
-    <t>Table 27: Trust in NISRA (2022) and ONS (2021)</t>
-  </si>
-  <si>
     <t>Trust_Civil_Service</t>
   </si>
   <si>
@@ -164,27 +92,18 @@
     <t>This worksheet contains four tables, presented vertically, outlining trust in the Civil Service</t>
   </si>
   <si>
-    <t>Table 32: Trust in the Civil Service, 2014-2022</t>
-  </si>
-  <si>
     <t>Q: For each institution, please indicate whether you tend to trust it or tend not to trust it - the NI Assembly</t>
   </si>
   <si>
     <t>This worksheet contains four tables, presented vertically, outlining trust in the Northern Ireland Assembly</t>
   </si>
   <si>
-    <t>Table 36: Trust in the Northern Ireland Assembly, 2014-2022 [Note 2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note 2: In 2019, respondents were asked whether they trusted elected bodies, such as the NI Assembly or the UK Government as the NI Assembly was suspended at this time. </t>
   </si>
   <si>
     <t>Q: For each institution, please indicate whether you tend to trust it or tend not to trust it - The Media</t>
   </si>
   <si>
-    <t>Table 40: Trust in the Media, 2014-2022</t>
-  </si>
-  <si>
     <t>Trust_NISRA_Statistics</t>
   </si>
   <si>
@@ -194,15 +113,6 @@
     <t>This worksheet contains six tables, presented vertically, outlining trust in the statistics produced by NISRA</t>
   </si>
   <si>
-    <t>Table 44: Trust in NISRA statistics, 2014-2022</t>
-  </si>
-  <si>
-    <t>Table 45: Trust in NISRA (2022) and ONS (2021) statistics</t>
-  </si>
-  <si>
-    <t>Table 49: Trust in NISRA statistics by respondent's awareness of NISRA, 2022</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -212,15 +122,6 @@
     <t xml:space="preserve">This worksheet contains six tables, presented vertically, which concern the value of NISRA statistics </t>
   </si>
   <si>
-    <t>Table 50: Statistics produced by NISRA are important to understand Northern Ireland, 2016-2022</t>
-  </si>
-  <si>
-    <t>Table 51: Statistics produced are important to understand our country (NISRA 2022 and ONS 2021)</t>
-  </si>
-  <si>
-    <t>Table 55: Statistics produced by NISRA are important to understand Northern Ireland, by whether or not the respondent had heard of NISRA, 2022</t>
-  </si>
-  <si>
     <t>Political_Interference</t>
   </si>
   <si>
@@ -230,12 +131,6 @@
     <t>This worksheet contains five tables, presented vertically, which outline agreement with the belief that statistics produced by NISRA are free from political interference</t>
   </si>
   <si>
-    <t>Table 56: Statistics produced by NISRA are free from political interference, 2014-2022</t>
-  </si>
-  <si>
-    <t>Table 57: Statistics produced are free from political interference (NISRA 2022 and ONS 2021)</t>
-  </si>
-  <si>
     <t>Confidentiality</t>
   </si>
   <si>
@@ -245,12 +140,6 @@
     <t>This worksheet contains five tables, presented vertically, which concern belief that information provided to NISRA will be kept confidential</t>
   </si>
   <si>
-    <t>Table 61: Personal information provided to NISRA will be kept confidential, 2014-2022</t>
-  </si>
-  <si>
-    <t>Table 62: Personal information provided will be kept confidential (NISRA 2022 and ONS 2021)</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -264,6 +153,70 @@
   </si>
   <si>
     <t>Trust_Media</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Public Awareness of and Trust in Official Statistics, Northern Ireland 2022 (Detailed Tables)</t>
+  </si>
+  <si>
+    <t>These tables present the responses to the Public Awareness of the Northern Ireland Statistics and Research Agency (NISRA) and Trust in Northern Ireland official statistics questions in the Northern Ireland Continuous Household Survey (CHS). Breakdowns by age group employment status and highest educational qualification are included, as well as comparisons over time and with the Office for National Statistics (ONS), where appropriate. The tables accompany the Public Awareness of and Trust in Official Statistics, Northern Ireland report which includes further explanations and related commentary. A list of tables is provided in the contents sheet.</t>
+  </si>
+  <si>
+    <t>Linked report (and infographics):</t>
+  </si>
+  <si>
+    <t>Public Awareness of and Trust in Official Statistics, Northern Ireland 2022</t>
+  </si>
+  <si>
+    <t>Topics covered:</t>
+  </si>
+  <si>
+    <t>Awareness of NISRA, Awareness of NISRA statistics, Trust in NISRA, Trust in the Civil Service, Trust in the NI Assembly, Trust in the Media, Trust in NISRA statistics, Value of NISRA Statistics, Political Interference, Confidentiality.</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Northern Ireland Continuous Household Survey (CHS): September 2022 to December 2022.</t>
+  </si>
+  <si>
+    <t>Published:</t>
+  </si>
+  <si>
+    <t>25th October 2023</t>
+  </si>
+  <si>
+    <t>Limitations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The figures presented in these tables were obtained from a sample of the population (1622 persons) and are therefore estimates, not precise figures. This means that they have a margin of error. Significance tests can be carried out to determine if the observed differences in the percentages for different response groups are likely to be real differences or due to sampling error. </t>
+  </si>
+  <si>
+    <t>Weighting:</t>
+  </si>
+  <si>
+    <t>The percentages in the tables are weighted to adjust for non-response bias. The total number of respondents is unweighted. Further information on the weighting and methodology can be found in Appendix A of the report.</t>
+  </si>
+  <si>
+    <t>Quality Information:</t>
+  </si>
+  <si>
+    <t>Background Quality Report: Public Awareness and Trust in Official Statistics</t>
+  </si>
+  <si>
+    <t>Contact Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Norma Broomfield
+Statistical Support Branch, NISRA
+Colby House
+Stranmillis Court
+Belfast, BT9 5RR
+Telephone: 028 9038 8481
+E-mail: Norma.Broomfield@nisra.gov.uk</t>
   </si>
 </sst>
 </file>
@@ -635,28 +588,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3CDC65-3E5C-434F-801E-C78CCD69DEB0}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,10 +628,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,76 +639,76 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,98 +716,98 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,131 +826,131 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1005,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1016,32 +969,32 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1049,10 +1002,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1060,285 +1013,76 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>15</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
